--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fgf5-Fgfr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fgf5-Fgfr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,12 +89,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +528,52 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1.902492</v>
+      </c>
+      <c r="H2">
+        <v>3.804984</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
         <v>0.5</v>
       </c>
-      <c r="G2">
-        <v>0.6512585</v>
-      </c>
-      <c r="H2">
-        <v>1.302517</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
       <c r="M2">
-        <v>0.4030655</v>
+        <v>0.09215</v>
       </c>
       <c r="N2">
-        <v>0.8061309999999999</v>
+        <v>0.1843</v>
       </c>
       <c r="O2">
-        <v>0.01062191174620465</v>
+        <v>0.01023932159503481</v>
       </c>
       <c r="P2">
-        <v>0.01057308397011603</v>
+        <v>0.01017879497979401</v>
       </c>
       <c r="Q2">
-        <v>0.2624998329317499</v>
+        <v>0.1753146378</v>
       </c>
       <c r="R2">
-        <v>1.049999331727</v>
+        <v>0.7012585512</v>
       </c>
       <c r="S2">
-        <v>0.01062191174620465</v>
+        <v>0.01023932159503481</v>
       </c>
       <c r="T2">
-        <v>0.01057308397011603</v>
+        <v>0.01017879497979401</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +590,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6512585</v>
+        <v>1.902492</v>
       </c>
       <c r="H3">
-        <v>1.302517</v>
+        <v>3.804984</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -626,22 +620,22 @@
         <v>0.321089</v>
       </c>
       <c r="O3">
-        <v>0.002820533321653764</v>
+        <v>0.01189268776136058</v>
       </c>
       <c r="P3">
-        <v>0.004211351453895939</v>
+        <v>0.01773358166721151</v>
       </c>
       <c r="Q3">
-        <v>0.06970398016883333</v>
+        <v>0.203623084596</v>
       </c>
       <c r="R3">
-        <v>0.418223881013</v>
+        <v>1.221738507576</v>
       </c>
       <c r="S3">
-        <v>0.002820533321653764</v>
+        <v>0.01189268776136058</v>
       </c>
       <c r="T3">
-        <v>0.004211351453895939</v>
+        <v>0.01773358166721151</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +652,16 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6512585</v>
+        <v>1.902492</v>
       </c>
       <c r="H4">
-        <v>1.302517</v>
+        <v>3.804984</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -682,152 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>37.1930565</v>
+        <v>8.80044</v>
       </c>
       <c r="N4">
-        <v>74.38611300000001</v>
+        <v>17.60088</v>
       </c>
       <c r="O4">
-        <v>0.9801418472049912</v>
+        <v>0.9778679906436047</v>
       </c>
       <c r="P4">
-        <v>0.9756362414539821</v>
+        <v>0.9720876233529945</v>
       </c>
       <c r="Q4">
-        <v>24.22229418660525</v>
+        <v>16.74276669648</v>
       </c>
       <c r="R4">
-        <v>96.889176746421</v>
+        <v>66.97106678592</v>
       </c>
       <c r="S4">
-        <v>0.9801418472049912</v>
+        <v>0.9778679906436047</v>
       </c>
       <c r="T4">
-        <v>0.9756362414539821</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.5</v>
-      </c>
-      <c r="G5">
-        <v>0.6512585</v>
-      </c>
-      <c r="H5">
-        <v>1.302517</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M5">
-        <v>0.1809256666666667</v>
-      </c>
-      <c r="N5">
-        <v>0.5427770000000001</v>
-      </c>
-      <c r="O5">
-        <v>0.004767901157396439</v>
-      </c>
-      <c r="P5">
-        <v>0.0071189754494588</v>
-      </c>
-      <c r="Q5">
-        <v>0.1178293782848333</v>
-      </c>
-      <c r="R5">
-        <v>0.7069762697090001</v>
-      </c>
-      <c r="S5">
-        <v>0.004767901157396439</v>
-      </c>
-      <c r="T5">
-        <v>0.0071189754494588</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.5</v>
-      </c>
-      <c r="G6">
-        <v>0.6512585</v>
-      </c>
-      <c r="H6">
-        <v>1.302517</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.06252866666666666</v>
-      </c>
-      <c r="N6">
-        <v>0.187586</v>
-      </c>
-      <c r="O6">
-        <v>0.001647806569754003</v>
-      </c>
-      <c r="P6">
-        <v>0.002460347672547249</v>
-      </c>
-      <c r="Q6">
-        <v>0.04072232566033333</v>
-      </c>
-      <c r="R6">
-        <v>0.244333953962</v>
-      </c>
-      <c r="S6">
-        <v>0.001647806569754003</v>
-      </c>
-      <c r="T6">
-        <v>0.002460347672547249</v>
+        <v>0.9720876233529945</v>
       </c>
     </row>
   </sheetData>
